--- a/Shared - template nilai - copy.xlsx
+++ b/Shared - template nilai - copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanmaverick/Desktop/Aslab/TPA/Web/Web/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sekolah\Kuliah\Aslab\TPA\Web\VK23-2_TPA_Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41EAC72A-81AB-4044-94E3-795CDEFDA915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427C5799-E0DD-4A1E-86DC-3FCF9FD59C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{36528B3F-DB1E-2849-8381-FEDD73900826}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="10" activeTab="17" xr2:uid="{36528B3F-DB1E-2849-8381-FEDD73900826}"/>
   </bookViews>
   <sheets>
     <sheet name="General " sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="181">
   <si>
     <t>Title</t>
   </si>
@@ -1179,24 +1179,24 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="8"/>
+    <col min="5" max="5" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
         <v>1</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="15"/>
       <c r="D9" s="1" t="s">
         <v>3</v>
@@ -1223,7 +1223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="15"/>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -1235,7 +1235,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="15"/>
       <c r="D11" s="1" t="s">
         <v>36</v>
@@ -1247,7 +1247,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="16"/>
       <c r="D12" s="1" t="s">
         <v>37</v>
@@ -1256,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
         <v>170</v>
       </c>
@@ -1289,22 +1289,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="13" t="s">
         <v>176</v>
       </c>
       <c r="D16" s="13"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>179</v>
       </c>
       <c r="E19" s="8">
         <f>SUM('General '!H8+Login!H8+Register!H8+'Forgotten Account Page'!H8+'Navigation Bar'!H8+Search!H8+Footer!H8+Home!H8+'Search Result'!H8+'Detail Page - Flight'!H8+'Detail Page - Hotel'!H8+'Cart Page'!H8+'My Ticket Page'!H8+'History Page'!H8+'Profile Page'!H8+'Admin Page'!H8+'Check Location Page'!H8+'Multiplayer Game'!H8)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>176</v>
       </c>
@@ -1337,27 +1337,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E66DFD9-E84D-B74D-9794-90C70AD79E41}">
   <dimension ref="C6:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
         <v>46</v>
       </c>
@@ -1365,53 +1365,53 @@
         <v>48</v>
       </c>
       <c r="E8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="8">
         <f>SUM(E8:E19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="15"/>
       <c r="D9" s="9" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="15"/>
       <c r="D10" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="15"/>
       <c r="D11" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="15"/>
       <c r="D12" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="20" t="s">
         <v>11</v>
       </c>
@@ -1419,37 +1419,37 @@
         <v>85</v>
       </c>
       <c r="E13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="20"/>
       <c r="D14" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="20"/>
       <c r="D15" s="9" t="s">
         <v>87</v>
       </c>
       <c r="E15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="20"/>
       <c r="D16" s="9" t="s">
         <v>71</v>
       </c>
       <c r="E16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
         <v>70</v>
       </c>
@@ -1457,10 +1457,10 @@
         <v>89</v>
       </c>
       <c r="E17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="14" t="s">
         <v>15</v>
       </c>
@@ -1471,16 +1471,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="16"/>
       <c r="D19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="13" t="s">
         <v>176</v>
       </c>
@@ -1512,27 +1512,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A688AB6-B4BF-AD41-AED6-D93A85A4C998}">
   <dimension ref="C6:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
         <v>46</v>
       </c>
@@ -1540,62 +1540,62 @@
         <v>53</v>
       </c>
       <c r="E8" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="8">
         <f>SUM(E8:E20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="15"/>
       <c r="D9" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="15"/>
       <c r="D10" s="9" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="15"/>
       <c r="D11" s="9" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="15"/>
       <c r="D12" s="9" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="16"/>
       <c r="D13" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="14" t="s">
         <v>11</v>
       </c>
@@ -1603,37 +1603,37 @@
         <v>59</v>
       </c>
       <c r="E14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="15"/>
       <c r="D15" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="15"/>
       <c r="D16" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="16"/>
       <c r="D17" s="9" t="s">
         <v>71</v>
       </c>
       <c r="E17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>70</v>
       </c>
@@ -1641,10 +1641,10 @@
         <v>89</v>
       </c>
       <c r="E18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="14" t="s">
         <v>15</v>
       </c>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="16"/>
       <c r="D20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="13" t="s">
         <v>176</v>
       </c>
@@ -1696,28 +1696,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6F3BF3-AD80-41CA-8F71-3E7B010A512F}">
   <dimension ref="C6:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H9"/>
+    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="8"/>
+    <col min="5" max="5" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
         <v>46</v>
       </c>
@@ -1725,14 +1725,14 @@
         <v>60</v>
       </c>
       <c r="E8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="8">
         <f>SUM(E8:E25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="15"/>
       <c r="D9" s="1" t="s">
         <v>61</v>
@@ -1744,16 +1744,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="15"/>
       <c r="D10" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="15"/>
       <c r="D11" s="1" t="s">
         <v>67</v>
@@ -1761,17 +1761,20 @@
       <c r="E11" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="15"/>
       <c r="D12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="15"/>
       <c r="D13" s="1" t="s">
         <v>63</v>
@@ -1780,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="16"/>
       <c r="D14" s="1" t="s">
         <v>64</v>
@@ -1789,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="14" t="s">
         <v>11</v>
       </c>
@@ -1800,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="15"/>
       <c r="D16" s="1" t="s">
         <v>174</v>
@@ -1809,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
       <c r="D17" s="1" t="s">
         <v>175</v>
@@ -1818,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
       <c r="D18" s="1" t="s">
         <v>65</v>
@@ -1827,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="15"/>
       <c r="D19" s="1" t="s">
         <v>66</v>
@@ -1836,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="15"/>
       <c r="D20" s="1" t="s">
         <v>90</v>
@@ -1845,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="15"/>
       <c r="D21" s="1" t="s">
         <v>68</v>
@@ -1854,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="16"/>
       <c r="D22" s="1" t="s">
         <v>71</v>
@@ -1863,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
         <v>70</v>
       </c>
@@ -1874,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="14" t="s">
         <v>15</v>
       </c>
@@ -1885,16 +1888,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="16"/>
       <c r="D25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="13" t="s">
         <v>176</v>
       </c>
@@ -1926,28 +1929,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53740C0C-0E69-450F-84BF-2E4C748E9EAC}">
   <dimension ref="C6:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H9"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="8"/>
+    <col min="5" max="5" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
         <v>46</v>
       </c>
@@ -1955,35 +1958,35 @@
         <v>91</v>
       </c>
       <c r="E8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="8">
         <f>SUM(E8:E12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="15"/>
       <c r="D9" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="15"/>
       <c r="D10" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="14" t="s">
         <v>15</v>
       </c>
@@ -1994,16 +1997,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="16"/>
       <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="13" t="s">
         <v>176</v>
       </c>
@@ -2034,28 +2037,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D105EA94-2B4B-44AA-B35D-768F400BC96F}">
   <dimension ref="B6:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="8"/>
+    <col min="4" max="4" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
         <v>46</v>
       </c>
@@ -2063,14 +2066,14 @@
         <v>94</v>
       </c>
       <c r="D8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="8">
         <f>SUM(D8:D19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="20"/>
       <c r="C9" s="1" t="s">
         <v>95</v>
@@ -2082,43 +2085,43 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="20"/>
       <c r="C10" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
       <c r="C11" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="20"/>
       <c r="C12" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="20"/>
       <c r="C13" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
         <v>11</v>
       </c>
@@ -2126,28 +2129,28 @@
         <v>100</v>
       </c>
       <c r="D14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="20"/>
       <c r="C15" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="20"/>
       <c r="C16" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>70</v>
       </c>
@@ -2155,10 +2158,10 @@
         <v>108</v>
       </c>
       <c r="D17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
         <v>15</v>
       </c>
@@ -2169,16 +2172,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="20"/>
       <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
         <v>176</v>
       </c>
@@ -2210,28 +2213,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A853B64-4398-4C1C-B13E-4B5924807788}">
   <dimension ref="C6:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="8"/>
+    <col min="5" max="5" width="8.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
         <v>46</v>
       </c>
@@ -2239,53 +2242,53 @@
         <v>102</v>
       </c>
       <c r="E8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="8">
         <f>SUM(E8:E18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="15"/>
       <c r="D9" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="15"/>
       <c r="D10" t="s">
         <v>104</v>
       </c>
       <c r="E10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="15"/>
       <c r="D11" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="16"/>
       <c r="D12" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="14" t="s">
         <v>11</v>
       </c>
@@ -2293,28 +2296,28 @@
         <v>107</v>
       </c>
       <c r="E13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="15"/>
       <c r="D14" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="16"/>
       <c r="D15" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>70</v>
       </c>
@@ -2322,10 +2325,10 @@
         <v>108</v>
       </c>
       <c r="E16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="20" t="s">
         <v>15</v>
       </c>
@@ -2336,16 +2339,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="20"/>
       <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="13" t="s">
         <v>176</v>
       </c>
@@ -2377,27 +2380,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35EAE93D-BB04-4A75-BEBE-9F783F0332AC}">
   <dimension ref="C6:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E20"/>
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
         <v>46</v>
       </c>
@@ -2409,22 +2412,22 @@
       </c>
       <c r="H8" s="2">
         <f>SUM(E8:E20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="15"/>
       <c r="D9" s="10" t="s">
         <v>111</v>
       </c>
       <c r="E9" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="15"/>
       <c r="D10" s="9" t="s">
         <v>112</v>
@@ -2433,25 +2436,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="15"/>
       <c r="D11" s="11" t="s">
         <v>113</v>
       </c>
       <c r="E11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="16"/>
       <c r="D12" s="9" t="s">
         <v>114</v>
       </c>
       <c r="E12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="14" t="s">
         <v>11</v>
       </c>
@@ -2459,10 +2462,10 @@
         <v>115</v>
       </c>
       <c r="E13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="15"/>
       <c r="D14" s="9" t="s">
         <v>116</v>
@@ -2471,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="15"/>
       <c r="D15" s="9" t="s">
         <v>117</v>
@@ -2480,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="16"/>
       <c r="D16" s="9" t="s">
         <v>71</v>
@@ -2489,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>118</v>
       </c>
@@ -2500,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>120</v>
       </c>
@@ -2508,10 +2511,10 @@
         <v>108</v>
       </c>
       <c r="E18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="20" t="s">
         <v>15</v>
       </c>
@@ -2522,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="20"/>
       <c r="D20" s="9" t="s">
         <v>17</v>
@@ -2531,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="13" t="s">
         <v>176</v>
       </c>
@@ -2563,28 +2566,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD36AF6-F3A2-7B43-8173-221B76970680}">
   <dimension ref="C6:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="C15" zoomScale="133" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="133" workbookViewId="0">
       <selection activeCell="H8" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
     <col min="4" max="4" width="47.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="18"/>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
         <v>46</v>
       </c>
@@ -2599,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="15"/>
       <c r="D9" s="1" t="s">
         <v>122</v>
@@ -2611,7 +2614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="15"/>
       <c r="D10" s="1" t="s">
         <v>123</v>
@@ -2620,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="16"/>
       <c r="D11" s="1" t="s">
         <v>130</v>
@@ -2629,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="20" t="s">
         <v>124</v>
       </c>
@@ -2640,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="20"/>
       <c r="D13" s="1" t="s">
         <v>2</v>
@@ -2649,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="20"/>
       <c r="D14" s="1" t="s">
         <v>2</v>
@@ -2658,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="20"/>
       <c r="D15" s="1" t="s">
         <v>125</v>
@@ -2667,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="20"/>
       <c r="D16" s="1" t="s">
         <v>2</v>
@@ -2676,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="20"/>
       <c r="D17" s="1" t="s">
         <v>126</v>
@@ -2685,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="20"/>
       <c r="D18" s="1" t="s">
         <v>127</v>
@@ -2694,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
         <v>128</v>
       </c>
@@ -2705,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="20" t="s">
         <v>15</v>
       </c>
@@ -2716,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="20"/>
       <c r="D21" s="1" t="s">
         <v>17</v>
@@ -2725,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="13" t="s">
         <v>176</v>
       </c>
@@ -2757,27 +2760,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849AA142-E18F-5542-A5E4-A691AFB12BF0}">
   <dimension ref="C6:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="18"/>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
@@ -2785,14 +2788,14 @@
         <v>131</v>
       </c>
       <c r="E8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="8">
         <f>SUM(E8:E29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="15"/>
       <c r="D9" s="6" t="s">
         <v>132</v>
@@ -2804,25 +2807,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="15"/>
       <c r="D10" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="15"/>
       <c r="D11" s="6" t="s">
         <v>134</v>
       </c>
       <c r="E11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="15"/>
       <c r="D12" s="6" t="s">
         <v>135</v>
@@ -2831,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="16"/>
       <c r="D13" s="6" t="s">
         <v>71</v>
@@ -2840,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="14" t="s">
         <v>136</v>
       </c>
@@ -2848,10 +2851,10 @@
         <v>137</v>
       </c>
       <c r="E14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="15"/>
       <c r="D15" s="6" t="s">
         <v>2</v>
@@ -2860,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="16"/>
       <c r="D16" s="6" t="s">
         <v>2</v>
@@ -2869,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="14" t="s">
         <v>138</v>
       </c>
@@ -2877,82 +2880,82 @@
         <v>139</v>
       </c>
       <c r="E17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
       <c r="D18" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="15"/>
       <c r="D19" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="15"/>
       <c r="D20" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="15"/>
       <c r="D21" s="1" t="s">
         <v>143</v>
       </c>
       <c r="E21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="15"/>
       <c r="D22" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="15"/>
       <c r="D23" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="15"/>
       <c r="D24" s="1" t="s">
         <v>178</v>
       </c>
       <c r="E24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="15"/>
       <c r="D25" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="15"/>
       <c r="D26" s="1" t="s">
         <v>147</v>
@@ -2961,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="15"/>
       <c r="D27" s="1" t="s">
         <v>148</v>
@@ -2970,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="15"/>
       <c r="D28" s="1" t="s">
         <v>149</v>
@@ -2979,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="16"/>
       <c r="D29" s="1" t="s">
         <v>150</v>
@@ -2988,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="13" t="s">
         <v>176</v>
       </c>
@@ -3060,23 +3063,23 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
@@ -3091,7 +3094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="14" t="s">
         <v>11</v>
       </c>
@@ -3105,7 +3108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="15"/>
       <c r="D10" s="9" t="s">
         <v>73</v>
@@ -3114,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="15"/>
       <c r="D11" s="9" t="s">
         <v>74</v>
@@ -3123,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="15"/>
       <c r="D12" s="9" t="s">
         <v>177</v>
@@ -3135,7 +3138,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="16"/>
       <c r="D13" s="9" t="s">
         <v>71</v>
@@ -3144,7 +3147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="14" t="s">
         <v>12</v>
       </c>
@@ -3155,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="16"/>
       <c r="D15" s="9" t="s">
         <v>2</v>
@@ -3164,7 +3167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
@@ -3175,7 +3178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="14" t="s">
         <v>15</v>
       </c>
@@ -3186,7 +3189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="16"/>
       <c r="D18" s="9" t="s">
         <v>17</v>
@@ -3195,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="14" t="s">
         <v>18</v>
       </c>
@@ -3206,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="16"/>
       <c r="D20" s="9" t="s">
         <v>19</v>
@@ -3215,7 +3218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="14" t="s">
         <v>38</v>
       </c>
@@ -3226,7 +3229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="15"/>
       <c r="D22" s="9" t="s">
         <v>77</v>
@@ -3235,7 +3238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="15"/>
       <c r="D23" s="9" t="s">
         <v>78</v>
@@ -3244,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="16"/>
       <c r="D24" s="9" t="s">
         <v>79</v>
@@ -3253,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="13" t="s">
         <v>176</v>
       </c>
@@ -3287,27 +3290,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64EB2F9-2466-684D-BB2E-362FDE6BA069}">
   <dimension ref="C6:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="14" t="s">
         <v>11</v>
       </c>
@@ -3336,7 +3339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="15"/>
       <c r="D10" s="9" t="s">
         <v>21</v>
@@ -3345,7 +3348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="15"/>
       <c r="D11" s="9" t="s">
         <v>22</v>
@@ -3354,7 +3357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="15"/>
       <c r="D12" s="9" t="s">
         <v>23</v>
@@ -3363,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="15"/>
       <c r="D13" s="9" t="s">
         <v>24</v>
@@ -3372,7 +3375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="15"/>
       <c r="D14" s="9" t="s">
         <v>25</v>
@@ -3381,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="15"/>
       <c r="D15" s="9" t="s">
         <v>26</v>
@@ -3390,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="15"/>
       <c r="D16" s="9" t="s">
         <v>27</v>
@@ -3399,7 +3402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="15"/>
       <c r="D17" s="9" t="s">
         <v>71</v>
@@ -3408,7 +3411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
       <c r="D18" s="9" t="s">
         <v>12</v>
@@ -3417,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="16"/>
       <c r="D19" s="9" t="s">
         <v>80</v>
@@ -3426,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
@@ -3437,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
@@ -3448,7 +3451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="14" t="s">
         <v>15</v>
       </c>
@@ -3459,7 +3462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="16"/>
       <c r="D23" s="9" t="s">
         <v>17</v>
@@ -3468,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="13" t="s">
         <v>176</v>
       </c>
@@ -3503,24 +3506,24 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
@@ -3535,7 +3538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="15"/>
       <c r="D9" s="1" t="s">
         <v>83</v>
@@ -3547,7 +3550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="15"/>
       <c r="D10" s="1" t="s">
         <v>82</v>
@@ -3556,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="16"/>
       <c r="D11" s="1" t="s">
         <v>71</v>
@@ -3565,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
@@ -3576,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="14" t="s">
         <v>15</v>
       </c>
@@ -3587,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="16"/>
       <c r="D14" s="1" t="s">
         <v>17</v>
@@ -3596,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="13" t="s">
         <v>176</v>
       </c>
@@ -3627,28 +3630,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16EE34F-E53B-6340-B1EA-3DBCBDD54B46}">
   <dimension ref="C6:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E12"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
@@ -3656,14 +3659,14 @@
         <v>32</v>
       </c>
       <c r="E8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <f>SUM(E8:E13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
@@ -3671,13 +3674,13 @@
         <v>166</v>
       </c>
       <c r="E9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
@@ -3685,10 +3688,10 @@
         <v>167</v>
       </c>
       <c r="E10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="14" t="s">
         <v>34</v>
       </c>
@@ -3696,28 +3699,28 @@
         <v>168</v>
       </c>
       <c r="E11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="15"/>
       <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="16"/>
       <c r="D13" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
         <v>176</v>
       </c>
@@ -3748,32 +3751,32 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
@@ -3781,14 +3784,14 @@
         <v>162</v>
       </c>
       <c r="E8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="8">
         <f>SUM(E8:E11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="14" t="s">
         <v>34</v>
       </c>
@@ -3802,25 +3805,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="15"/>
       <c r="D10" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="16"/>
       <c r="D11" s="1" t="s">
         <v>165</v>
       </c>
       <c r="E11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="13" t="s">
         <v>176</v>
       </c>
@@ -3851,27 +3854,27 @@
   <dimension ref="C6:H10"/>
   <sheetViews>
     <sheetView topLeftCell="B2" zoomScale="153" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
         <v>13</v>
       </c>
@@ -3879,26 +3882,26 @@
         <v>41</v>
       </c>
       <c r="E8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="8">
         <f>SUM(E8:E9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="16"/>
       <c r="D9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="13" t="s">
         <v>176</v>
       </c>
@@ -3929,26 +3932,26 @@
   <dimension ref="C6:H15"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="112" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="3:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
         <v>34</v>
       </c>
@@ -3960,10 +3963,10 @@
       </c>
       <c r="H8" s="8">
         <f>SUM(E8:E14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="15"/>
       <c r="D9" s="9" t="s">
         <v>44</v>
@@ -3975,25 +3978,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="15"/>
       <c r="D10" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="15"/>
       <c r="D11" s="9" t="s">
         <v>160</v>
       </c>
       <c r="E11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="16"/>
       <c r="D12" s="9" t="s">
         <v>161</v>
@@ -4002,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="14" t="s">
         <v>15</v>
       </c>
@@ -4013,16 +4016,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="16"/>
       <c r="D14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="13" t="s">
         <v>176</v>
       </c>
@@ -4053,28 +4056,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67CAD11-E08A-0446-9655-8C43BCE84A18}">
   <dimension ref="C6:H19"/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C6" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="17"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
         <v>46</v>
       </c>
@@ -4082,26 +4085,26 @@
         <v>151</v>
       </c>
       <c r="E8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="8">
         <f>SUM(E8:E18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="16"/>
       <c r="D9" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="15"/>
       <c r="D10" s="1" t="s">
         <v>154</v>
@@ -4110,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" s="15"/>
       <c r="D11" s="1" t="s">
         <v>155</v>
@@ -4119,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" s="15"/>
       <c r="D12" s="1" t="s">
         <v>156</v>
@@ -4128,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" s="16"/>
       <c r="D13" s="1" t="s">
         <v>157</v>
@@ -4136,8 +4139,11 @@
       <c r="E13" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" s="14" t="s">
         <v>47</v>
       </c>
@@ -4148,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" s="16"/>
       <c r="D15" s="1" t="s">
         <v>159</v>
@@ -4156,8 +4162,11 @@
       <c r="E15" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
         <v>172</v>
       </c>
@@ -4168,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="14" t="s">
         <v>15</v>
       </c>
@@ -4179,16 +4188,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="16"/>
       <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="13" t="s">
         <v>176</v>
       </c>

--- a/Shared - template nilai - copy.xlsx
+++ b/Shared - template nilai - copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sekolah\Kuliah\Aslab\TPA\Web\VK23-2_TPA_Web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427C5799-E0DD-4A1E-86DC-3FCF9FD59C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC5017A-F126-4B25-854B-2A42918D87D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="10" activeTab="17" xr2:uid="{36528B3F-DB1E-2849-8381-FEDD73900826}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="9" xr2:uid="{36528B3F-DB1E-2849-8381-FEDD73900826}"/>
   </bookViews>
   <sheets>
     <sheet name="General " sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="181">
   <si>
     <t>Title</t>
   </si>
@@ -1176,7 +1176,7 @@
   <dimension ref="C6:H20"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="139" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="E19" s="8">
         <f>SUM('General '!H8+Login!H8+Register!H8+'Forgotten Account Page'!H8+'Navigation Bar'!H8+Search!H8+Footer!H8+Home!H8+'Search Result'!H8+'Detail Page - Flight'!H8+'Detail Page - Hotel'!H8+'Cart Page'!H8+'My Ticket Page'!H8+'History Page'!H8+'Profile Page'!H8+'Admin Page'!H8+'Check Location Page'!H8+'Multiplayer Game'!H8)</f>
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
@@ -1337,7 +1337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E66DFD9-E84D-B74D-9794-90C70AD79E41}">
   <dimension ref="C6:H20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -2760,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849AA142-E18F-5542-A5E4-A691AFB12BF0}">
   <dimension ref="C6:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="H8" s="8">
         <f>SUM(E8:E29)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="14" t="s">
         <v>138</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="15"/>
       <c r="D18" s="1" t="s">
         <v>140</v>
@@ -2892,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="15"/>
       <c r="D19" s="1" t="s">
         <v>141</v>
@@ -2901,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="15"/>
       <c r="D20" s="1" t="s">
         <v>142</v>
@@ -2910,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="15"/>
       <c r="D21" s="1" t="s">
         <v>143</v>
@@ -2919,7 +2919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="15"/>
       <c r="D22" s="1" t="s">
         <v>144</v>
@@ -2928,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="15"/>
       <c r="D23" s="1" t="s">
         <v>145</v>
@@ -2937,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="15"/>
       <c r="D24" s="1" t="s">
         <v>178</v>
@@ -2946,7 +2946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" s="15"/>
       <c r="D25" s="1" t="s">
         <v>146</v>
@@ -2955,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="15"/>
       <c r="D26" s="1" t="s">
         <v>147</v>
@@ -2963,35 +2963,38 @@
       <c r="E26" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="15"/>
       <c r="D27" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" s="15"/>
       <c r="D28" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E28" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" s="16"/>
       <c r="D29" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" s="13" t="s">
         <v>176</v>
       </c>
@@ -4056,7 +4059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67CAD11-E08A-0446-9655-8C43BCE84A18}">
   <dimension ref="C6:H19"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
